--- a/weight_normalized.xlsx
+++ b/weight_normalized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericagoto/Dropbox/ESTUDOS/erica phD/methodology/AHP/BGM-Weight02-MultilinerLogistic/BGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E76FC-6DC7-1A47-8E09-29430A8E25D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B93059-DC45-E242-BB2E-277F127512F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30780" yWindow="3980" windowWidth="27640" windowHeight="16240" xr2:uid="{4DE4361E-92E7-8143-8D98-BFADF998A9A4}"/>
   </bookViews>
@@ -871,8 +871,8 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,29 +1377,29 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>16.5</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0.35779816513761481</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>-5.0480601924874753E-2</v>
       </c>
-      <c r="H20">
-        <v>3.8445000000000007E-2</v>
+      <c r="H20" s="1">
+        <v>3.8445E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1845,159 +1845,159 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>13.5</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>7.9646017699115126E-2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>-0.729664775625955</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>8.0460000000000004E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>12.6</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>0.126</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
         <v>-0.93704318554070043</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>7.5095999999999996E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>13.5</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>7.9646017699115126E-2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>-0.729664775625955</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>8.0460000000000004E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>23.9</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>0.23899999999999999</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>1</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>1.666707961166656</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>0.14244399999999999</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>0.17899999999999999</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>0.46902654867256632</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>0.28418522840168792</v>
       </c>
-      <c r="H42">
-        <v>0.10668399999999999</v>
+      <c r="H42" s="1">
+        <v>0.106684</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>18.600000000000001</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>0.18600000000000003</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>0.5309734513274339</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>0.44547954722426836</v>
       </c>
-      <c r="H43">
-        <v>0.11085600000000001</v>
+      <c r="H43" s="1">
+        <v>0.110856</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317B6BB-A8A3-BB42-B244-A452936C8D58}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3757,8 +3757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46481D9-673F-B848-BD2D-70F0C4ACDEE2}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A30" zoomScale="161" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/weight_normalized.xlsx
+++ b/weight_normalized.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericagoto/Dropbox/ESTUDOS/erica phD/methodology/AHP/BGM-Weight02-MultilinerLogistic/BGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B93059-DC45-E242-BB2E-277F127512F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6906C566-8482-0B43-B4B8-8ACADE89F9CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="3980" windowWidth="27640" windowHeight="16240" xr2:uid="{4DE4361E-92E7-8143-8D98-BFADF998A9A4}"/>
+    <workbookView xWindow="28800" yWindow="860" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{4DE4361E-92E7-8143-8D98-BFADF998A9A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="computation parameters" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="remove ones not used" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="163">
   <si>
     <t>Parameter</t>
   </si>
@@ -510,13 +511,28 @@
   </si>
   <si>
     <t>A_nude_soil</t>
+  </si>
+  <si>
+    <t>Normalized-final Weight</t>
+  </si>
+  <si>
+    <t>should be add to all the sectors</t>
+  </si>
+  <si>
+    <t>each can be selected</t>
+  </si>
+  <si>
+    <t>only one can be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don't have grass. I will add to all sectors. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -524,8 +540,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +565,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,9 +605,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,16 +938,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4D5608-2F94-524D-82FC-A4391623E78A}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:H17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1688,315 +1760,315 @@
         <v>3.5180614334470992E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>9.6</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>3.3755274261603352E-2</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>-0.63106864783312289</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <v>1.28985654008439E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>9</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>0.09</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>8.4388185654007929E-3</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <v>-0.68477661786147381</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <v>3.2246413502109501E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>29.5</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>0.29499999999999998</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0.87341772151898722</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>1.1502456914405146</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>3.3375037974683497E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>10.5</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>0.105</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>7.172995780590713E-2</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <v>-0.55050669279059661</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>2.740945147679323E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>32.5</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>0.32500000000000001</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>1</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="2">
         <v>1.4187855415822692</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <v>3.0040224000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>8.8000000000000009E-2</v>
       </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
         <v>-0.70267927453759071</v>
       </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4">
         <v>13.5</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="4">
         <v>7.9646017699115126E-2</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="4">
         <v>-0.729664775625955</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="4">
         <v>8.0460000000000004E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="4">
         <v>12.6</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="4">
         <v>0.126</v>
       </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
         <v>-0.93704318554070043</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="4">
         <v>7.5095999999999996E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="4">
         <v>13.5</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="4">
         <v>7.9646017699115126E-2</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="4">
         <v>-0.729664775625955</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="4">
         <v>8.0460000000000004E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="4">
         <v>23.9</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="4">
         <v>0.23899999999999999</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="4">
         <v>1</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="4">
         <v>1.666707961166656</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="4">
         <v>0.14244399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="4">
         <v>0.17899999999999999</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="4">
         <v>0.46902654867256632</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="4">
         <v>0.28418522840168792</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="4">
         <v>0.106684</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="4">
         <v>0.18600000000000003</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="4">
         <v>0.5309734513274339</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="4">
         <v>0.44547954722426836</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="4">
         <v>0.110856</v>
       </c>
     </row>
@@ -2104,185 +2176,185 @@
         <v>1.9274165217391299E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <v>49.6</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="3">
         <v>0.496</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="3">
         <v>1</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="3">
         <v>0.72911467819625897</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="3">
         <v>6.1873149999999997E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <v>42.5</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="3">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="3">
         <v>0.82973621103117501</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="3">
         <v>0.41087405021305573</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="3">
         <v>5.13383930455635E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="3">
         <v>7.9</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="3">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
         <v>-1.1399887284093144</v>
       </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="3">
         <v>0.2541666666666666</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="3">
         <v>-0.21383611163949867</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="3">
         <v>9.5273700000000003E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <v>17.7</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="3">
         <v>0.26666666666666661</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="3">
         <v>-0.18143670078502919</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="3">
         <v>9.6916350000000005E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="3">
         <v>35.299999999999997</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="3">
         <v>0.35299999999999998</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="3">
         <v>1</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="3">
         <v>1.7193287360105134</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="3">
         <v>1.9328515000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <v>15.2</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="3">
         <v>0.152</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="3">
         <v>0.16249999999999998</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="3">
         <v>-0.45143179123894145</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="3">
         <v>8.3227600000000002E-3</v>
       </c>
     </row>
@@ -2321,13 +2393,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317B6BB-A8A3-BB42-B244-A452936C8D58}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -2359,7 +2432,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2369,7 +2442,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>0.17100000000000001</v>
       </c>
       <c r="E2">
@@ -2379,7 +2452,7 @@
         <v>-0.70709261973918014</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2462,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>0.23300000000000001</v>
       </c>
       <c r="E3">
@@ -2399,7 +2472,7 @@
         <v>-0.43703260480799422</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +2482,7 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>0.59599999999999997</v>
       </c>
       <c r="E4">
@@ -2426,10 +2499,10 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.17100000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>0.34200000000000003</v>
       </c>
       <c r="E5">
@@ -2450,10 +2523,10 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>0.17100000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>0.27600000000000002</v>
       </c>
       <c r="E6">
@@ -2477,10 +2550,10 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>0.17100000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.11</v>
       </c>
       <c r="E7">
@@ -2493,6 +2566,9 @@
         <f t="shared" si="0"/>
         <v>1.881E-2</v>
       </c>
+      <c r="J7">
+        <v>1.881E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2501,10 +2577,10 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>0.17100000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>0.27200000000000002</v>
       </c>
       <c r="E8">
@@ -2768,7 +2844,7 @@
       <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>0.23300000000000001</v>
       </c>
       <c r="D18">
@@ -2792,7 +2868,7 @@
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>0.23300000000000001</v>
       </c>
       <c r="D19">
@@ -2816,7 +2892,7 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>0.23300000000000001</v>
       </c>
       <c r="D20">
@@ -2840,7 +2916,7 @@
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>0.23300000000000001</v>
       </c>
       <c r="D21">
@@ -2864,7 +2940,7 @@
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>0.23300000000000001</v>
       </c>
       <c r="D22">
@@ -2888,7 +2964,7 @@
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>0.23300000000000001</v>
       </c>
       <c r="D23">
@@ -3005,11 +3081,11 @@
       <c r="F27">
         <v>0.9692387919561799</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="7">
         <f t="shared" si="3"/>
         <v>1.2443131999999999E-2</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="7">
         <v>1.2443131999999999E-2</v>
       </c>
     </row>
@@ -3032,11 +3108,11 @@
       <c r="F28">
         <v>0.25986837175636701</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="7">
         <f t="shared" si="3"/>
         <v>8.7249179999999999E-3</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="7">
         <v>8.7249179999999999E-3</v>
       </c>
     </row>
@@ -3059,11 +3135,11 @@
       <c r="F29">
         <v>-1.0184030785046823</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="7">
         <f t="shared" si="3"/>
         <v>2.02477E-3</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="7">
         <v>2.02477E-3</v>
       </c>
     </row>
@@ -3086,11 +3162,11 @@
       <c r="F30">
         <v>-1.0886377735739707</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
+      <c r="H30" s="7">
+        <f>C30*D30</f>
         <v>1.6566299999999999E-3</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="7">
         <v>1.6566299999999999E-3</v>
       </c>
     </row>
@@ -3113,11 +3189,11 @@
       <c r="F31">
         <v>0.8779336883661053</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="7">
         <f t="shared" si="3"/>
         <v>1.1964550000000001E-2</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="7">
         <v>1.1964550000000001E-2</v>
       </c>
     </row>
@@ -3140,11 +3216,11 @@
       <c r="F32">
         <v>-0.63106864783312289</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="7">
         <f t="shared" si="3"/>
         <v>3.6683519999999997E-3</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="7">
         <v>3.6683519999999997E-3</v>
       </c>
     </row>
@@ -3290,7 +3366,7 @@
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>0.59599999999999997</v>
       </c>
       <c r="D38">
@@ -3306,6 +3382,9 @@
         <f>C38*D38</f>
         <v>8.0460000000000004E-2</v>
       </c>
+      <c r="J38">
+        <v>0.13500000000000001</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -3314,7 +3393,7 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>0.59599999999999997</v>
       </c>
       <c r="D39">
@@ -3330,6 +3409,9 @@
         <f t="shared" ref="G39:G43" si="4">C39*D39</f>
         <v>7.5095999999999996E-2</v>
       </c>
+      <c r="J39">
+        <v>0.126</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -3338,7 +3420,7 @@
       <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <v>0.59599999999999997</v>
       </c>
       <c r="D40">
@@ -3354,6 +3436,9 @@
         <f t="shared" si="4"/>
         <v>8.0460000000000004E-2</v>
       </c>
+      <c r="J40">
+        <v>0.13500000000000001</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -3362,7 +3447,7 @@
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>0.59599999999999997</v>
       </c>
       <c r="D41">
@@ -3378,6 +3463,9 @@
         <f t="shared" si="4"/>
         <v>0.14244399999999999</v>
       </c>
+      <c r="J41">
+        <v>0.23899999999999999</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -3386,7 +3474,7 @@
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>0.59599999999999997</v>
       </c>
       <c r="D42">
@@ -3402,6 +3490,9 @@
         <f t="shared" si="4"/>
         <v>0.10668399999999999</v>
       </c>
+      <c r="J42">
+        <v>0.17899999999999999</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -3410,7 +3501,7 @@
       <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>0.59599999999999997</v>
       </c>
       <c r="D43">
@@ -3426,6 +3517,9 @@
         <f t="shared" si="4"/>
         <v>0.11085600000000001</v>
       </c>
+      <c r="J43">
+        <v>0.18600000000000003</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -3745,6 +3839,9 @@
       </c>
       <c r="H55">
         <f t="shared" si="7"/>
+        <v>6.1873149999999997E-3</v>
+      </c>
+      <c r="J55">
         <v>6.1873149999999997E-3</v>
       </c>
     </row>
@@ -3757,8 +3854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46481D9-673F-B848-BD2D-70F0C4ACDEE2}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3828,58 +3925,58 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>4.7196000000000009E-2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.71551724137931039</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>4.7196000000000009E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1.881E-2</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
         <v>1.881E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>4.6512000000000005E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.69827586206896552</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>4.6512000000000005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>7.1628480000000003E-3</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <f>C9*D8</f>
         <v>0</v>
       </c>
@@ -4560,4 +4657,1628 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCAD202-4AF2-A54A-B370-B116FC1DC5B9}">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>-0.70709261973918014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.14588235294117649</v>
+      </c>
+      <c r="F3">
+        <v>-0.43703260480799422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1.1441252245471745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.93213459186141556</v>
+      </c>
+      <c r="G5">
+        <f>C5*D5</f>
+        <v>5.8482000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.71551724137931039</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.26342934117822631</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" ref="G6:G7" si="0">C6*D6</f>
+        <v>4.7196000000000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-1.4184656832673712</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.881E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.69827586206896552</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.22290175022772996</v>
+      </c>
+      <c r="G8" s="3">
+        <f>C8*D8</f>
+        <v>4.6512000000000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.6512000000000005E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.154</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-0.65792642599332329</v>
+      </c>
+      <c r="H9" s="3">
+        <f>C9*D9</f>
+        <v>7.1628480000000003E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.6512000000000005E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9.1277890466531411E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-0.49283336370875341</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" ref="H10:H17" si="1">C10*D10</f>
+        <v>9.2558880000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.6512000000000005E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.1507597897020769</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0093264000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-1.0283188316723653</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>5.9850000000000007E-3</v>
+      </c>
+      <c r="J12">
+        <f>C12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D13">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>6.9686411149825767E-2</v>
+      </c>
+      <c r="F13">
+        <v>-0.87011593449200153</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>9.4050000000000002E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J17" si="2">C13*E13</f>
+        <v>1.1916376306620208E-2</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D14">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.22299651567944248</v>
+      </c>
+      <c r="F14">
+        <v>-0.52206956069520083</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1.6929000000000003E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>3.8132404181184666E-2</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.45644599303135885</v>
+      </c>
+      <c r="F15">
+        <v>7.9101448590182012E-3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2.8386000000000005E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>7.8052264808362373E-2</v>
+      </c>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.313</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.96864111498257832</v>
+      </c>
+      <c r="F16">
+        <v>1.1707014391346926</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>5.3523000000000001E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0.16563763066202092</v>
+      </c>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1.2418927428658566</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>5.5062000000000007E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.153</v>
+      </c>
+      <c r="E18">
+        <v>0.247706422018349</v>
+      </c>
+      <c r="F18">
+        <v>-0.38089908725132432</v>
+      </c>
+      <c r="G18" s="13">
+        <f>C18*D18</f>
+        <v>3.5649E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1.8769605624794121</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" ref="G19:G23" si="3">C19*D19</f>
+        <v>5.4754999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.35779816513761481</v>
+      </c>
+      <c r="F20">
+        <v>-5.0480601924874753E-2</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="3"/>
+        <v>3.8445000000000007E-2</v>
+      </c>
+      <c r="J20">
+        <v>3.8445000000000007E-2</v>
+      </c>
+      <c r="K20">
+        <v>3.8445000000000007E-2</v>
+      </c>
+      <c r="M20">
+        <v>3.8445000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.158</v>
+      </c>
+      <c r="E21">
+        <v>0.29357798165137622</v>
+      </c>
+      <c r="F21">
+        <v>-0.24322471836530368</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="3"/>
+        <v>3.6814E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.126</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>-1.124340679235835</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="3"/>
+        <v>2.9358000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.16399999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.34862385321100903</v>
+      </c>
+      <c r="F23">
+        <v>-7.8015475702079645E-2</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="3"/>
+        <v>3.8211999999999996E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>3.5649E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.84266666666666656</v>
+      </c>
+      <c r="F24">
+        <v>0.42484097932059306</v>
+      </c>
+      <c r="H24">
+        <f>C24*D24</f>
+        <v>1.4936930999999999E-2</v>
+      </c>
+      <c r="J24">
+        <f>C24*E24</f>
+        <v>3.0040223999999997E-2</v>
+      </c>
+      <c r="K24">
+        <v>3.5649E-2</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>3.5649E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>-1.1422767187180147</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H37" si="4">C25*D25</f>
+        <v>3.6718470000000002E-3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J27" si="5">C25*E25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>3.5649E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.71743573939742167</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>1.7040222000000001E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>3.5649E-2</v>
+      </c>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.6814E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.33799999999999997</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.9692387919561799</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="4"/>
+        <v>1.2443131999999999E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>3.6814E-2</v>
+      </c>
+      <c r="K27" s="2">
+        <v>3.6814E-2</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.6814E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.65529010238907859</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.25986837175636701</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="4"/>
+        <v>8.7249179999999999E-3</v>
+      </c>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3.6814E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3.4129692832764513E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-1.0184030785046823</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="4"/>
+        <v>2.02477E-3</v>
+      </c>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3.6814E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-1.0886377735739707</v>
+      </c>
+      <c r="H30" s="11">
+        <f>C30*D30</f>
+        <v>1.6566299999999999E-3</v>
+      </c>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.6814E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.95563139931740626</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.8779336883661053</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="4"/>
+        <v>1.1964550000000001E-2</v>
+      </c>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>3.8211999999999996E-2</v>
+      </c>
+      <c r="D32">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E32">
+        <v>3.3755274261603352E-2</v>
+      </c>
+      <c r="F32">
+        <v>-0.63106864783312289</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="4"/>
+        <v>3.6683519999999997E-3</v>
+      </c>
+      <c r="J32" s="7">
+        <f>D32*C32</f>
+        <v>3.6683519999999997E-3</v>
+      </c>
+      <c r="K32">
+        <v>3.6683519999999997E-3</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32">
+        <f>SUM(K32:K37)</f>
+        <v>3.8173787999999993E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>3.8211999999999996E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.09</v>
+      </c>
+      <c r="E33">
+        <v>8.4388185654007929E-3</v>
+      </c>
+      <c r="F33">
+        <v>-0.68477661786147381</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>3.4390799999999993E-3</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" ref="J33:J43" si="6">D33*C33</f>
+        <v>3.4390799999999993E-3</v>
+      </c>
+      <c r="K33">
+        <v>3.4390799999999993E-3</v>
+      </c>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>3.8211999999999996E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E34">
+        <v>0.87341772151898722</v>
+      </c>
+      <c r="F34">
+        <v>1.1502456914405146</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>1.1272539999999998E-2</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="6"/>
+        <v>1.1272539999999998E-2</v>
+      </c>
+      <c r="K34">
+        <v>1.1272539999999998E-2</v>
+      </c>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>3.8211999999999996E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.105</v>
+      </c>
+      <c r="E35">
+        <v>7.172995780590713E-2</v>
+      </c>
+      <c r="F35">
+        <v>-0.55050669279059661</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>4.0122599999999993E-3</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="6"/>
+        <v>4.0122599999999993E-3</v>
+      </c>
+      <c r="K35">
+        <v>4.0122599999999993E-3</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>3.8211999999999996E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1.4187855415822692</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>1.2418899999999998E-2</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2418899999999998E-2</v>
+      </c>
+      <c r="K36">
+        <v>1.2418899999999998E-2</v>
+      </c>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>3.8211999999999996E-2</v>
+      </c>
+      <c r="D37">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>-0.70267927453759071</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>3.3626559999999999E-3</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="6"/>
+        <v>3.3626559999999999E-3</v>
+      </c>
+      <c r="K37">
+        <v>3.3626559999999999E-3</v>
+      </c>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D38">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E38">
+        <v>7.9646017699115126E-2</v>
+      </c>
+      <c r="F38">
+        <v>-0.729664775625955</v>
+      </c>
+      <c r="G38">
+        <f>C38*D38</f>
+        <v>8.0460000000000004E-2</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="6"/>
+        <v>8.0460000000000004E-2</v>
+      </c>
+      <c r="K38">
+        <v>8.0460000000000004E-2</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M38">
+        <f>SUM(K38:K43)</f>
+        <v>0.59600000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D39">
+        <v>0.126</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>-0.93704318554070043</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G43" si="7">C39*D39</f>
+        <v>7.5095999999999996E-2</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="6"/>
+        <v>7.5095999999999996E-2</v>
+      </c>
+      <c r="K39">
+        <v>7.5095999999999996E-2</v>
+      </c>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D40">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E40">
+        <v>7.9646017699115126E-2</v>
+      </c>
+      <c r="F40">
+        <v>-0.729664775625955</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="7"/>
+        <v>8.0460000000000004E-2</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="6"/>
+        <v>8.0460000000000004E-2</v>
+      </c>
+      <c r="K40">
+        <v>8.0460000000000004E-2</v>
+      </c>
+      <c r="L40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D41">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1.666707961166656</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="7"/>
+        <v>0.14244399999999999</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="6"/>
+        <v>0.14244399999999999</v>
+      </c>
+      <c r="K41">
+        <v>0.14244399999999999</v>
+      </c>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D42">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.46902654867256632</v>
+      </c>
+      <c r="F42">
+        <v>0.28418522840168792</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>0.10668399999999999</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="6"/>
+        <v>0.10668399999999999</v>
+      </c>
+      <c r="K42">
+        <v>0.10668399999999999</v>
+      </c>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D43">
+        <v>0.18600000000000003</v>
+      </c>
+      <c r="E43">
+        <v>0.5309734513274339</v>
+      </c>
+      <c r="F43">
+        <v>0.44547954722426836</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="7"/>
+        <v>0.11085600000000001</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="6"/>
+        <v>0.11085600000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.11085600000000001</v>
+      </c>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44">
+        <v>2.9358000000000002E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.109</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>-1.4179151531911309</v>
+      </c>
+      <c r="H44">
+        <f>C44*D44</f>
+        <v>3.2000220000000003E-3</v>
+      </c>
+      <c r="J44" s="7">
+        <f>C44*E44</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45">
+        <v>2.9358000000000002E-2</v>
+      </c>
+      <c r="D45">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E45">
+        <v>0.79565217391304355</v>
+      </c>
+      <c r="F45">
+        <v>0.42235770520586857</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H47" si="8">C45*D45</f>
+        <v>8.5725360000000004E-3</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" ref="J45:J50" si="9">C45*E45</f>
+        <v>2.3358756521739136E-2</v>
+      </c>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>2.9358000000000002E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.33899999999999997</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0.8949960896029121</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="8"/>
+        <v>9.9523619999999993E-3</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="9"/>
+        <v>2.9358000000000002E-2</v>
+      </c>
+      <c r="K46">
+        <v>2.9358000000000002E-2</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46">
+        <v>2.9358000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>2.9358000000000002E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.26</v>
+      </c>
+      <c r="E47">
+        <v>0.65652173913043499</v>
+      </c>
+      <c r="F47">
+        <v>0.10056135838234979</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="8"/>
+        <v>7.6330800000000004E-3</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="9"/>
+        <v>1.9274165217391313E-2</v>
+      </c>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>6.1873149999999997E-3</v>
+      </c>
+      <c r="D48">
+        <v>0.496</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0.72911467819625897</v>
+      </c>
+      <c r="I48">
+        <f>C48*D48</f>
+        <v>3.0689082399999999E-3</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="9"/>
+        <v>6.1873149999999997E-3</v>
+      </c>
+      <c r="K48">
+        <v>6.1873149999999997E-3</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>6.1873149999999997E-3</v>
+      </c>
+      <c r="D49">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E49">
+        <v>0.82973621103117501</v>
+      </c>
+      <c r="F49">
+        <v>0.41087405021305573</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49:I50" si="10">C49*D49</f>
+        <v>2.6296088749999998E-3</v>
+      </c>
+      <c r="J49" s="7">
+        <f t="shared" si="9"/>
+        <v>5.1338393045563544E-3</v>
+      </c>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>6.1873149999999997E-3</v>
+      </c>
+      <c r="D50">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>-1.1399887284093144</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="10"/>
+        <v>4.8879788499999995E-4</v>
+      </c>
+      <c r="J50" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <v>5.4754999999999998E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E51">
+        <v>0.2541666666666666</v>
+      </c>
+      <c r="F51">
+        <v>-0.21383611163949867</v>
+      </c>
+      <c r="H51">
+        <f>C51*D51</f>
+        <v>9.5273699999999985E-3</v>
+      </c>
+      <c r="J51" s="7">
+        <f>C51*D51</f>
+        <v>9.5273699999999985E-3</v>
+      </c>
+      <c r="K51">
+        <v>9.5273699999999985E-3</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M51">
+        <f>SUM(K51:K54)+K48</f>
+        <v>5.4700244999999995E-2</v>
+      </c>
+      <c r="N51">
+        <f>M51+M46+M32+K24+K27</f>
+        <v>0.19469503300000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <v>5.4754999999999998E-2</v>
+      </c>
+      <c r="D52">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0.26666666666666661</v>
+      </c>
+      <c r="F52">
+        <v>-0.18143670078502919</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:H55" si="11">C52*D52</f>
+        <v>9.6916349999999988E-3</v>
+      </c>
+      <c r="J52" s="7">
+        <f t="shared" ref="J52:J55" si="12">C52*D52</f>
+        <v>9.6916349999999988E-3</v>
+      </c>
+      <c r="K52">
+        <v>9.6916349999999988E-3</v>
+      </c>
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <v>5.4754999999999998E-2</v>
+      </c>
+      <c r="D53">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1.7193287360105134</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="11"/>
+        <v>1.9328514999999998E-2</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9328514999999998E-2</v>
+      </c>
+      <c r="K53">
+        <v>1.9328514999999998E-2</v>
+      </c>
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>5.4754999999999998E-2</v>
+      </c>
+      <c r="D54">
+        <v>0.182</v>
+      </c>
+      <c r="E54">
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="F54">
+        <v>-0.45143179123894145</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="11"/>
+        <v>9.9654099999999992E-3</v>
+      </c>
+      <c r="J54" s="7">
+        <f>C54*D54</f>
+        <v>9.9654099999999992E-3</v>
+      </c>
+      <c r="K54">
+        <v>9.9654099999999992E-3</v>
+      </c>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55">
+        <v>5.4754999999999998E-2</v>
+      </c>
+      <c r="D55">
+        <v>0.113</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>-0.87262413234704461</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="11"/>
+        <v>6.1873149999999997E-3</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <f>SUM(H51:H55)</f>
+        <v>5.4700244999999995E-2</v>
+      </c>
+      <c r="K56">
+        <f>SUM(K17:K54)</f>
+        <v>1.0001400330000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L51:L55"/>
+    <mergeCell ref="L32:L37"/>
+    <mergeCell ref="L38:L43"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="L48:L50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>